--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/netease/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/netease/PycharmProjects/StatisticsGenerators/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="37440" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="240">
   <si>
     <t>Android</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,6 +326,718 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>找回密码页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:Retrieve_password }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:set_password }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码页面点击下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置新密码页面点击完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:Retrieve_password  Scenes:Retrieve_password  itemtype:button, itemid:xxxxx, itemname:按钮上的文字, itemurl:xxxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:set_password  Scenes:Retrieve_password itemtype:button, itemid:xxxxx, itemname:按钮上的文字, itemurl:xxxxx }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录报错消息框展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录报错消息框点击取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录报错消息框点击重新登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录报错页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:login_remind_page  Scenes:login_remind  itemtype:button, itemid:xxxxx, itemname:按钮的文字, itemurl:xxxxx }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:login_remind_page, pagemessage:提醒文字 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课页面banner加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_summary , Scenes:banner}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner内容曝光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_summary, Scenes:banner,  position:1-n   itemtype:url|course|term, itemid:xxxxx, itemname:xxxx, itemurl:xxxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_summary , Scenes:banner, pre_tab:上一个tab序号||文字（可以没有）， curr_tab:当前tab的序号||文字}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner内容点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课页面课程体系tab切换（暂无）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课页面课程体系课程点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_summary , Scenes:curriculum_structure, pre_tab:上一个tab序号||文字（可以没有）， curr_tab:当前tab的序号||文字}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_summary, Scenes:curriculum_structure ,  position:1-n   itemtype:url|course|term, itemid:xxxxx, itemname:xxxx, itemurl:xxxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面上展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction， itemtype: course ,itemid:courseid, itemname:course_course, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面预览视频点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes:pre_video   itemtype: video , itemid:videoid, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes:term_select   itemtype: term , itemid:termid, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面优惠场景加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: coupon}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面点击优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面选择tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面点击已有优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: coupon   itemtype: button , itemid:videoid, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面tab选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes:tab_select   itemtype: xxxx , itemid:xxxx, itemname:tab文字, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍页介绍场景加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍页介绍目录加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: introduction}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes:catelog }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍页点击课程服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍页点击咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍页点击电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍页点击立即参加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: course_server   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: course_phone   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: course_enroll   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: course_advisory   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页可领优惠券场景加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: user_can_obtain_coupon}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页可领优惠券场景点击领取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: user_can_obtain_coupon   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面立即参加学期选择场景加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes: enroll_termselect}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页面物品点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes:enroll_termselect   itemtype: term , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页课时单元点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: course_introduction，Scenes:catelog   itemtype: 见sheet3各种unit定义 , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的学习页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my_learn }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的课程点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my_learn，Scenes:my_course   itemtype: term , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录用户点击登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my_learn，Scenes:login   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选课用户点击选课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my_learn，Scenes:my_course   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn， itemtype: term , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes:catelog     itemtype:见sheet3各种unit定义  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes:catelog     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes: Validity_enroll     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes: share     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes: goto_courseintrodution     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes: video_play     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes: term_fee_enroll  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes: term_fee_enroll     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部webview的访问事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: webView， itemtype: url , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击账号信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击网络设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消息缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击已经反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击评分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击关于我们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击退出登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头衔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>{pagename: my，Scenes: my_information    itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my，Scenes: my_message     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:my，Scenes: my_order     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:my，Scenes: my_coupon     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my，Scenes: my_network     itemtype:button  , itemid:termid, itemname:是|否, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my，Scenes: my_cache     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: my，Scenes: my_feedback     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:my，Scenes: my_commend     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:my，Scenes: product_information     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename:my，Scenes: loginout     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不打</t>
+  </si>
+  <si>
+    <t>暂时不打</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券页面相关信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单页面web端补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册成功时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退选成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{termid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定优惠券成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_enroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_register</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入课程详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_introduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{courseid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入学期主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{termid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_get_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes（da）、bizData（log）(至少)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{orderid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_order_success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业提交成交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_unload_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{testid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机引导</t>
+    <rPh sb="0" eb="1">
+      <t>kai'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'dao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎页</t>
+    <rPh sb="0" eb="1">
+      <t>huan'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程学习页页面展示</t>
+  </si>
+  <si>
+    <t>课程学习页页面展示</t>
+    <rPh sb="0" eb="1">
+      <t>ke'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程学习页页面点击课时学习</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击课时学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程学习页</t>
+  </si>
+  <si>
+    <t>课程学习页点击叫做作业||查看作业||补交作业等按钮</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击去购买</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击分享</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击课程详情</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击封面按钮</t>
+  </si>
+  <si>
+    <t>课程学习页页面购买场景加载</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击领取优惠券</t>
+  </si>
+  <si>
+    <t>课程学习页页面点击暂不购买||立即购买</t>
+  </si>
+  <si>
+    <t>开机引导画面的开启编程之旅的按钮</t>
+    <rPh sb="2" eb="3">
+      <t>yin'dao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎画面展示</t>
+    <rPh sb="0" eb="1">
+      <t>huan'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventId（da）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventId（da）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pagename: term_learn，Scenes:catelog     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">讲师：instructor
 视频课时：videoUnit
 音频课时：audioUnit
@@ -341,714 +1056,6 @@
 toast：toast
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码页面展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:Retrieve_password }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置密码页面展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置密码页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:set_password }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码页面点击下一步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置新密码页面点击完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:Retrieve_password  Scenes:Retrieve_password  itemtype:button, itemid:xxxxx, itemname:按钮上的文字, itemurl:xxxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:set_password  Scenes:Retrieve_password itemtype:button, itemid:xxxxx, itemname:按钮上的文字, itemurl:xxxxx }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录报错消息框展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录报错消息框点击取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录报错消息框点击重新登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录报错页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:login_remind_page  Scenes:login_remind  itemtype:button, itemid:xxxxx, itemname:按钮的文字, itemurl:xxxxx }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:login_remind_page, pagemessage:提醒文字 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课页面展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课页面banner加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_summary , Scenes:banner}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner内容曝光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_summary, Scenes:banner,  position:1-n   itemtype:url|course|term, itemid:xxxxx, itemname:xxxx, itemurl:xxxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_summary , Scenes:banner, pre_tab:上一个tab序号||文字（可以没有）， curr_tab:当前tab的序号||文字}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner内容点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课页面课程体系tab切换（暂无）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课页面课程体系课程点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_summary , Scenes:curriculum_structure, pre_tab:上一个tab序号||文字（可以没有）， curr_tab:当前tab的序号||文字}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_summary, Scenes:curriculum_structure ,  position:1-n   itemtype:url|course|term, itemid:xxxxx, itemname:xxxx, itemurl:xxxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面上展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction， itemtype: course ,itemid:courseid, itemname:course_course, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面预览视频点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes:pre_video   itemtype: video , itemid:videoid, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes:term_select   itemtype: term , itemid:termid, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面优惠场景加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: coupon}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面点击优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面选择tab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面点击已有优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: coupon   itemtype: button , itemid:videoid, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面tab选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes:tab_select   itemtype: xxxx , itemid:xxxx, itemname:tab文字, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍页介绍场景加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍页介绍目录加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: introduction}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes:catelog }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍页点击课程服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍页点击咨询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍页点击电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍页点击立即参加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: course_server   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: course_phone   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: course_enroll   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: course_advisory   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页可领优惠券场景加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: user_can_obtain_coupon}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页可领优惠券场景点击领取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: user_can_obtain_coupon   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面立即参加学期选择场景加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes: enroll_termselect}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页面物品点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes:enroll_termselect   itemtype: term , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情页课时单元点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: course_introduction，Scenes:catelog   itemtype: 见sheet3各种unit定义 , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的学习页面展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my_learn }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的课程点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my_learn，Scenes:my_course   itemtype: term , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录用户点击登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my_learn，Scenes:login   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未选课用户点击选课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my_learn，Scenes:my_course   itemtype: button , itemid:xxxx, itemname:xxxxe, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn， itemtype: term , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes:catelog     itemtype:见sheet3各种unit定义  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes:catelog     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes: Validity_enroll     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes: share     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes: goto_courseintrodution     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes: video_play     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes: term_fee_enroll  }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: term_learn，Scenes: term_fee_enroll     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部webview的访问事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>webview</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: webView， itemtype: url , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击账号信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击网络设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击消息缓存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击已经反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击评分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击关于我们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击退出登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头衔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击学校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击年龄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>{pagename: my，Scenes: my_information    itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my，Scenes: my_message     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:my，Scenes: my_order     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:my，Scenes: my_coupon     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my，Scenes: my_network     itemtype:button  , itemid:termid, itemname:是|否, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my，Scenes: my_cache     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename: my，Scenes: my_feedback     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:my，Scenes: my_commend     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:my，Scenes: product_information     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{pagename:my，Scenes: loginout     itemtype:button  , itemid:termid, itemname:term_name, itemurl:xxxx}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不打</t>
-  </si>
-  <si>
-    <t>暂时不打</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券页面相关信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单页面web端补充</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册成功时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录成功的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>退选成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{termid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定优惠券成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_enroll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_register</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入课程详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_introduction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{courseid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入学期主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{termid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupon_get_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributes（da）、bizData（log）(至少)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{code}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{orderid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_order_success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业提交成交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_unload_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{testid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开机引导</t>
-    <rPh sb="0" eb="1">
-      <t>kai'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yin'dao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎页</t>
-    <rPh sb="0" eb="1">
-      <t>huan'ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ye</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册页面展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程学习页页面展示</t>
-  </si>
-  <si>
-    <t>课程学习页页面展示</t>
-    <rPh sb="0" eb="1">
-      <t>ke'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xue'xi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ye</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程学习页页面点击课时学习</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击课时学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程学习页</t>
-  </si>
-  <si>
-    <t>课程学习页点击叫做作业||查看作业||补交作业等按钮</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击去购买</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击分享</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击课程详情</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击封面按钮</t>
-  </si>
-  <si>
-    <t>课程学习页页面购买场景加载</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击领取优惠券</t>
-  </si>
-  <si>
-    <t>课程学习页页面点击暂不购买||立即购买</t>
-  </si>
-  <si>
-    <t>开机引导画面的开启编程之旅的按钮</t>
-    <rPh sb="2" eb="3">
-      <t>yin'dao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎画面展示</t>
-    <rPh sb="0" eb="1">
-      <t>huan'ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hua'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhan'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventId（da）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventId（da）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1687,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y269"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1753,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -1767,16 +1774,16 @@
     </row>
     <row r="5" spans="1:25" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>217</v>
-      </c>
       <c r="C5" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -1799,10 +1806,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -2049,7 +2056,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>60</v>
@@ -2118,22 +2125,22 @@
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,22 +2151,22 @@
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2170,22 +2177,22 @@
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2196,22 +2203,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2242,10 +2249,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -2257,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,22 +2275,22 @@
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,22 +2301,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2340,10 +2347,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>44</v>
@@ -2366,10 +2373,10 @@
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -2381,7 +2388,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,10 +2399,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>39</v>
@@ -2407,7 +2414,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2421,7 +2428,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>41</v>
@@ -2433,7 +2440,7 @@
         <v>41</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2444,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>42</v>
@@ -2459,7 +2466,7 @@
         <v>42</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,10 +2477,10 @@
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>41</v>
@@ -2485,7 +2492,7 @@
         <v>41</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2496,10 +2503,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>42</v>
@@ -2511,7 +2518,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,22 +2539,22 @@
         <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,10 +2565,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>42</v>
@@ -2573,7 +2580,7 @@
         <v>42</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,10 +2591,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>41</v>
@@ -2599,7 +2606,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,10 +2617,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>45</v>
@@ -2625,7 +2632,7 @@
         <v>45</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,10 +2643,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
@@ -2651,7 +2658,7 @@
         <v>42</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2662,10 +2669,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>42</v>
@@ -2677,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2688,10 +2695,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>45</v>
@@ -2703,7 +2710,7 @@
         <v>45</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2714,10 +2721,10 @@
         <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>42</v>
@@ -2727,7 +2734,7 @@
         <v>42</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2738,10 +2745,10 @@
         <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>41</v>
@@ -2753,7 +2760,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,10 +2771,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>45</v>
@@ -2779,7 +2786,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2790,10 +2797,10 @@
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>45</v>
@@ -2805,7 +2812,7 @@
         <v>45</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2816,10 +2823,10 @@
         <v>35</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>42</v>
@@ -2831,7 +2838,7 @@
         <v>42</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2842,10 +2849,10 @@
         <v>35</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>42</v>
@@ -2855,7 +2862,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2866,10 +2873,10 @@
         <v>35</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>42</v>
@@ -2879,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2890,10 +2897,10 @@
         <v>35</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
@@ -2903,7 +2910,7 @@
         <v>42</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2914,10 +2921,10 @@
         <v>35</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>45</v>
@@ -2929,7 +2936,7 @@
         <v>45</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,10 +2947,10 @@
         <v>35</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>42</v>
@@ -2955,7 +2962,7 @@
         <v>42</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,10 +2973,10 @@
         <v>35</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>42</v>
@@ -2981,7 +2988,7 @@
         <v>42</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3002,10 +3009,10 @@
         <v>35</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>44</v>
@@ -3017,7 +3024,7 @@
         <v>44</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3028,10 +3035,10 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>42</v>
@@ -3043,7 +3050,7 @@
         <v>42</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3054,10 +3061,10 @@
         <v>35</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>42</v>
@@ -3069,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,10 +3087,10 @@
         <v>35</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>42</v>
@@ -3095,7 +3102,7 @@
         <v>42</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3126,22 +3133,22 @@
         <v>35</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,22 +3159,22 @@
         <v>35</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="E60" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3178,22 +3185,22 @@
         <v>35</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3204,22 +3211,22 @@
         <v>35</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3230,22 +3237,22 @@
         <v>35</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3256,22 +3263,22 @@
         <v>35</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3282,22 +3289,22 @@
         <v>35</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3308,22 +3315,22 @@
         <v>35</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,22 +3341,22 @@
         <v>35</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3360,22 +3367,22 @@
         <v>35</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3396,22 +3403,22 @@
         <v>35</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3432,22 +3439,22 @@
         <v>35</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3458,22 +3465,22 @@
         <v>35</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,25 +3488,25 @@
         <v>1000003</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3507,25 +3514,25 @@
         <v>1000004</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,25 +3540,25 @@
         <v>1000005</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3559,25 +3566,25 @@
         <v>1000006</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3585,25 +3592,25 @@
         <v>1000007</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3611,25 +3618,25 @@
         <v>1000008</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,25 +3644,25 @@
         <v>1000009</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3663,25 +3670,25 @@
         <v>1000010</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,25 +3696,25 @@
         <v>1000011</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3722,11 +3729,11 @@
     </row>
     <row r="84" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
@@ -3738,7 +3745,7 @@
       <c r="A85" s="39"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -3750,7 +3757,7 @@
       <c r="A86" s="39"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
@@ -3762,7 +3769,7 @@
       <c r="A87" s="40"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
@@ -3782,11 +3789,11 @@
     </row>
     <row r="89" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -3836,11 +3843,11 @@
     </row>
     <row r="94" spans="1:8" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
@@ -5616,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="C2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5635,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -5683,7 +5690,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -5697,16 +5704,16 @@
     </row>
     <row r="5" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -5729,10 +5736,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -5947,22 +5954,22 @@
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5973,22 +5980,22 @@
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,22 +6006,22 @@
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,22 +6032,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6071,10 +6078,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -6086,7 +6093,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6097,22 +6104,22 @@
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,22 +6130,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6169,10 +6176,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>44</v>
@@ -6195,10 +6202,10 @@
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -6210,7 +6217,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6221,10 +6228,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>39</v>
@@ -6236,7 +6243,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,7 +6257,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>41</v>
@@ -6262,7 +6269,7 @@
         <v>41</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,10 +6280,10 @@
         <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>42</v>
@@ -6288,7 +6295,7 @@
         <v>42</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6299,10 +6306,10 @@
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>41</v>
@@ -6314,7 +6321,7 @@
         <v>41</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,10 +6332,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>42</v>
@@ -6340,7 +6347,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6361,22 +6368,22 @@
         <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6387,10 +6394,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>42</v>
@@ -6402,7 +6409,7 @@
         <v>42</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6413,10 +6420,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>41</v>
@@ -6428,7 +6435,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6439,10 +6446,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>45</v>
@@ -6454,7 +6461,7 @@
         <v>45</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,10 +6472,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
@@ -6480,7 +6487,7 @@
         <v>42</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6491,10 +6498,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>42</v>
@@ -6506,7 +6513,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6517,10 +6524,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>45</v>
@@ -6532,7 +6539,7 @@
         <v>45</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6543,10 +6550,10 @@
         <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>42</v>
@@ -6556,7 +6563,7 @@
         <v>42</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6567,10 +6574,10 @@
         <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>41</v>
@@ -6582,7 +6589,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,10 +6600,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>45</v>
@@ -6608,7 +6615,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,10 +6626,10 @@
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>45</v>
@@ -6634,7 +6641,7 @@
         <v>45</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6645,10 +6652,10 @@
         <v>35</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>42</v>
@@ -6660,7 +6667,7 @@
         <v>42</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6671,10 +6678,10 @@
         <v>35</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>42</v>
@@ -6684,7 +6691,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6695,10 +6702,10 @@
         <v>35</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>42</v>
@@ -6708,7 +6715,7 @@
         <v>42</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6719,10 +6726,10 @@
         <v>35</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
@@ -6732,7 +6739,7 @@
         <v>42</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6743,10 +6750,10 @@
         <v>35</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>45</v>
@@ -6758,7 +6765,7 @@
         <v>45</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,10 +6776,10 @@
         <v>35</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>42</v>
@@ -6784,7 +6791,7 @@
         <v>42</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6795,10 +6802,10 @@
         <v>35</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>42</v>
@@ -6810,7 +6817,7 @@
         <v>42</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6831,10 +6838,10 @@
         <v>35</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>44</v>
@@ -6846,7 +6853,7 @@
         <v>44</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6857,10 +6864,10 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>42</v>
@@ -6872,7 +6879,7 @@
         <v>42</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6883,10 +6890,10 @@
         <v>35</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>42</v>
@@ -6898,7 +6905,7 @@
         <v>42</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,10 +6916,10 @@
         <v>35</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>42</v>
@@ -6924,7 +6931,7 @@
         <v>42</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6955,22 +6962,22 @@
         <v>35</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6981,22 +6988,22 @@
         <v>35</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,22 +7014,22 @@
         <v>35</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7033,22 +7040,22 @@
         <v>35</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7059,22 +7066,22 @@
         <v>35</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7085,22 +7092,22 @@
         <v>35</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7111,22 +7118,22 @@
         <v>35</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7137,22 +7144,22 @@
         <v>35</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7163,22 +7170,22 @@
         <v>35</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7189,22 +7196,22 @@
         <v>35</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7225,22 +7232,22 @@
         <v>35</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7261,22 +7268,22 @@
         <v>35</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7287,22 +7294,22 @@
         <v>35</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7310,25 +7317,25 @@
         <v>1000003</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7336,25 +7343,25 @@
         <v>1000004</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7362,25 +7369,25 @@
         <v>1000005</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7388,25 +7395,25 @@
         <v>1000006</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7414,25 +7421,25 @@
         <v>1000007</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7440,25 +7447,25 @@
         <v>1000008</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7466,25 +7473,25 @@
         <v>1000009</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7492,25 +7499,25 @@
         <v>1000010</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7518,25 +7525,25 @@
         <v>1000011</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7551,11 +7558,11 @@
     </row>
     <row r="84" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
@@ -7567,7 +7574,7 @@
       <c r="A85" s="39"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -7579,7 +7586,7 @@
       <c r="A86" s="39"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
@@ -7591,7 +7598,7 @@
       <c r="A87" s="40"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
@@ -7611,11 +7618,11 @@
     </row>
     <row r="89" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -7665,11 +7672,11 @@
     </row>
     <row r="94" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
@@ -7710,7 +7717,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -7749,7 +7756,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7760,13 +7767,13 @@
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7777,13 +7784,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7794,13 +7801,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7811,13 +7818,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7828,13 +7835,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7845,13 +7852,13 @@
         <v>35</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7859,16 +7866,16 @@
         <v>1000007</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7876,16 +7883,16 @@
         <v>1000008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7893,16 +7900,16 @@
         <v>1000009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7910,16 +7917,16 @@
         <v>1000010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7937,7 +7944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -8033,7 +8040,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
